--- a/public/data/hofburg-data.xlsx
+++ b/public/data/hofburg-data.xlsx
@@ -1703,8 +1703,16 @@
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>https://www.geschichtewiki.wien.gv.at/Rudolf_von_Alt</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>q:Q638183;gnd:118502204</t>
+        </is>
+      </c>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr">
@@ -1712,7 +1720,11 @@
           <t>male</t>
         </is>
       </c>
-      <c r="I37" t="inlineStr"/>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>painter</t>
+        </is>
+      </c>
       <c r="J37" t="inlineStr"/>
     </row>
   </sheetData>
@@ -3706,7 +3718,11 @@
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://www.geschichtewiki.wien.gv.at/Burgbastei</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -3808,7 +3824,7 @@
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://www.geschichtewiki.wien.gv.at/Reichskanzleitrakt</t>
+          <t>https://www.geschichtewiki.wien.gv.at/Hofkanzlei</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -3834,7 +3850,7 @@
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://www.geschichtewiki.wien.gv.at/Stallburg</t>
+          <t>https://www.geschichtewiki.wien.gv.at/MuseumsQuartier</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
@@ -5998,7 +6014,11 @@
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://www.geschichtewiki.wien.gv.at/Burgbastei</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -6156,7 +6176,7 @@
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://www.geschichtewiki.wien.gv.at/Reichskanzleitrakt</t>
+          <t>https://www.geschichtewiki.wien.gv.at/Hofkanzlei</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
@@ -6188,7 +6208,7 @@
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://www.geschichtewiki.wien.gv.at/Stallburg</t>
+          <t>https://www.geschichtewiki.wien.gv.at/MuseumsQuartier</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
@@ -8323,8 +8343,16 @@
           <t>maintain</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>1708-01-01</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>1793-12-31</t>
+        </is>
+      </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr">
@@ -8368,8 +8396,16 @@
           <t>maintain</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>1792-01-01</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>1792-12-31</t>
+        </is>
+      </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr">
@@ -8413,8 +8449,16 @@
           <t>maintain</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>1710-01-01</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>1765-12-31</t>
+        </is>
+      </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr">
@@ -8458,8 +8502,16 @@
           <t>maintain</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr"/>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>1745-01-01</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>1745-12-31</t>
+        </is>
+      </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr">
@@ -8503,8 +8555,16 @@
           <t>maintain</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>1773-01-01</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>1773-12-31</t>
+        </is>
+      </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr">
@@ -8548,8 +8608,16 @@
           <t>maintain</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr"/>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>1755-01-01</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>1788-12-31</t>
+        </is>
+      </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr">
@@ -8593,8 +8661,16 @@
           <t>maintain</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr"/>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>1749-01-01</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>1757-12-31</t>
+        </is>
+      </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr">
@@ -9048,8 +9124,16 @@
           <t>maintain</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr"/>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>1835-01-01</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>1835-12-31</t>
+        </is>
+      </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr">
@@ -9093,8 +9177,16 @@
           <t>maintain</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr"/>
-      <c r="I53" t="inlineStr"/>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>1835-01-01</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>1835-12-31</t>
+        </is>
+      </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr">
@@ -9138,8 +9230,16 @@
           <t>maintain</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr"/>
-      <c r="I54" t="inlineStr"/>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>1835-01-01</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>1835-12-31</t>
+        </is>
+      </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr">
@@ -9183,8 +9283,16 @@
           <t>maintain</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr"/>
-      <c r="I55" t="inlineStr"/>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>1816-01-01</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>1816-12-31</t>
+        </is>
+      </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr">
@@ -9228,8 +9336,16 @@
           <t>maintain</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr"/>
-      <c r="I56" t="inlineStr"/>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>1804-01-01</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>1808-12-31</t>
+        </is>
+      </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr">
@@ -9273,8 +9389,16 @@
           <t>maintain</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr"/>
-      <c r="I57" t="inlineStr"/>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>1835-01-01</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>1835-12-31</t>
+        </is>
+      </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr">
@@ -9318,8 +9442,16 @@
           <t>maintain</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr"/>
-      <c r="I58" t="inlineStr"/>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>1815-01-01</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>1815-12-31</t>
+        </is>
+      </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr">
@@ -9363,8 +9495,16 @@
           <t>maintain</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr"/>
-      <c r="I59" t="inlineStr"/>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>1835-01-01</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>1835-12-31</t>
+        </is>
+      </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr">
@@ -9408,8 +9548,16 @@
           <t>maintain</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr"/>
-      <c r="I60" t="inlineStr"/>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>1835-01-01</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>1835-12-31</t>
+        </is>
+      </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr">
@@ -9453,8 +9601,16 @@
           <t>maintain</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr"/>
-      <c r="I61" t="inlineStr"/>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>1835-01-01</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>1835-12-31</t>
+        </is>
+      </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr">
@@ -9662,8 +9818,16 @@
           <t>maintain</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr"/>
-      <c r="I66" t="inlineStr"/>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>1873-01-01</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>1873-12-31</t>
+        </is>
+      </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr">
@@ -9707,8 +9871,16 @@
           <t>maintain</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr"/>
-      <c r="I67" t="inlineStr"/>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>1873-01-01</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>1873-12-31</t>
+        </is>
+      </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr">
@@ -9752,8 +9924,16 @@
           <t>maintain</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr"/>
-      <c r="I68" t="inlineStr"/>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>1842-01-01</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>1842-12-31</t>
+        </is>
+      </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr">
@@ -9797,8 +9977,16 @@
           <t>maintain</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr"/>
-      <c r="I69" t="inlineStr"/>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>1840-01-01</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>1840-12-31</t>
+        </is>
+      </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr">
@@ -9842,8 +10030,16 @@
           <t>maintain</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr"/>
-      <c r="I70" t="inlineStr"/>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>1873-01-01</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>1873-12-31</t>
+        </is>
+      </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr">
@@ -9887,8 +10083,16 @@
           <t>maintain</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr"/>
-      <c r="I71" t="inlineStr"/>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>1873-01-01</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>1873-12-31</t>
+        </is>
+      </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr">
@@ -9932,8 +10136,16 @@
           <t>maintain</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr"/>
-      <c r="I72" t="inlineStr"/>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>1850-01-01</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>1854-12-31</t>
+        </is>
+      </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr">
@@ -9977,8 +10189,16 @@
           <t>maintain</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr"/>
-      <c r="I73" t="inlineStr"/>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>1873-01-01</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>1873-12-31</t>
+        </is>
+      </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr">
@@ -10022,8 +10242,16 @@
           <t>maintain</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr"/>
-      <c r="I74" t="inlineStr"/>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>1873-01-01</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>1873-12-31</t>
+        </is>
+      </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr">
@@ -10067,8 +10295,16 @@
           <t>maintain</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr"/>
-      <c r="I75" t="inlineStr"/>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>1873-01-01</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>1873-12-31</t>
+        </is>
+      </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr">
@@ -10112,8 +10348,16 @@
           <t>maintain</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr"/>
-      <c r="I76" t="inlineStr"/>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>1873-01-01</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>1873-12-31</t>
+        </is>
+      </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr">
@@ -10157,8 +10401,16 @@
           <t>maintain</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr"/>
-      <c r="I77" t="inlineStr"/>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>1853-01-01</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>1872-12-31</t>
+        </is>
+      </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr">
@@ -10284,8 +10536,16 @@
           <t>maintain</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr"/>
-      <c r="I80" t="inlineStr"/>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>1920-01-01</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>1920-12-31</t>
+        </is>
+      </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr">
@@ -10329,8 +10589,16 @@
           <t>maintain</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr"/>
-      <c r="I81" t="inlineStr"/>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>1920-01-01</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>1920-12-31</t>
+        </is>
+      </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr">
@@ -10374,8 +10642,16 @@
           <t>maintain</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr"/>
-      <c r="I82" t="inlineStr"/>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>1920-01-01</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>1920-12-31</t>
+        </is>
+      </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr">
@@ -10419,8 +10695,16 @@
           <t>maintain</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr"/>
-      <c r="I83" t="inlineStr"/>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>1892-01-01</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>1893-12-31</t>
+        </is>
+      </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr">
@@ -10464,8 +10748,16 @@
           <t>maintain</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr"/>
-      <c r="I84" t="inlineStr"/>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>1920-01-01</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>1920-12-31</t>
+        </is>
+      </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr">
@@ -10509,8 +10801,16 @@
           <t>maintain</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr"/>
-      <c r="I85" t="inlineStr"/>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>1920-01-01</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>1920-12-31</t>
+        </is>
+      </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr">
@@ -10554,8 +10854,16 @@
           <t>maintain</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr"/>
-      <c r="I86" t="inlineStr"/>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>1920-01-01</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>1920-12-31</t>
+        </is>
+      </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr">
@@ -10599,8 +10907,16 @@
           <t>maintain</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr"/>
-      <c r="I87" t="inlineStr"/>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>1920-01-01</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>1920-12-31</t>
+        </is>
+      </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr">
@@ -10644,8 +10960,16 @@
           <t>maintain</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr"/>
-      <c r="I88" t="inlineStr"/>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>1920-01-01</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>1920-12-31</t>
+        </is>
+      </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr">
@@ -10689,8 +11013,16 @@
           <t>maintain</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr"/>
-      <c r="I89" t="inlineStr"/>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>1920-01-01</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>1920-12-31</t>
+        </is>
+      </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr">
@@ -10734,8 +11066,16 @@
           <t>maintain</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr"/>
-      <c r="I90" t="inlineStr"/>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>1898-01-01</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>1910-12-31</t>
+        </is>
+      </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr">
@@ -10779,8 +11119,16 @@
           <t>maintain</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr"/>
-      <c r="I91" t="inlineStr"/>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>1873-01-01</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>1920-12-31</t>
+        </is>
+      </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr">
@@ -10824,8 +11172,16 @@
           <t>maintain</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr"/>
-      <c r="I92" t="inlineStr"/>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>1871-01-01</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>1907-12-31</t>
+        </is>
+      </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr">
@@ -11209,7 +11565,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O65"/>
+  <dimension ref="A1:O67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14413,6 +14769,100 @@
       <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>PE71</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Birth of Alt, Rudolf von</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Born Person</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>P38</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>https://www.geschichtewiki.wien.gv.at/Rudolf_von_Alt</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>birth</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>1812-08-28</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>1812-08-28</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="inlineStr"/>
+      <c r="O66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>PE72</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Death of Alt, Rudolf von</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Deceased Person</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>P38</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>https://www.geschichtewiki.wien.gv.at/Rudolf_von_Alt</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>death</t>
+        </is>
+      </c>
+      <c r="H67" s="2" t="n">
+        <v>1898</v>
+      </c>
+      <c r="I67" s="2" t="n">
+        <v>1898</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="inlineStr"/>
+      <c r="O67" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -14611,7 +15061,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O76"/>
+  <dimension ref="A1:O92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16540,48 +16990,28 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>OBE22</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>drafts for a general regulation of the Hofburg</t>
-        </is>
-      </c>
+          <t>OBE21</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Thing Role</t>
+          <t>architect</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>OB25</t>
+          <t>P22</t>
         </is>
       </c>
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr"/>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>planning</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>1745-01-01</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>1748-12-31</t>
-        </is>
-      </c>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>L25</t>
-        </is>
-      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr"/>
@@ -16592,25 +17022,45 @@
           <t>OBE22</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr"/>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>drafts for a general regulation of the Hofburg</t>
+        </is>
+      </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>depicted by</t>
+          <t>Thing Role</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>OD46</t>
+          <t>OB25</t>
         </is>
       </c>
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr"/>
-      <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr"/>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>planning</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>1745-01-01</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>1748-12-31</t>
+        </is>
+      </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>L25</t>
+        </is>
+      </c>
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr"/>
@@ -16624,12 +17074,12 @@
       <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr">
         <is>
-          <t>depicted by</t>
+          <t>architect</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>OD47</t>
+          <t>P10</t>
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
@@ -16658,7 +17108,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>OD48</t>
+          <t>OD46</t>
         </is>
       </c>
       <c r="E54" t="inlineStr"/>
@@ -16687,7 +17137,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>OD49</t>
+          <t>OD47</t>
         </is>
       </c>
       <c r="E55" t="inlineStr"/>
@@ -16716,7 +17166,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>OD40</t>
+          <t>OD48</t>
         </is>
       </c>
       <c r="E56" t="inlineStr"/>
@@ -16734,48 +17184,28 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>OBE23</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>Emperor Francis Joseph I commissions Carl Hasenauer to complete the Michaeler façade in connection with the extension of the Hofburg in the form of the "Imperial Forum"</t>
-        </is>
-      </c>
+          <t>OBE22</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Thing Role</t>
+          <t>depicted by</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>OB24;OB27</t>
+          <t>OD49</t>
         </is>
       </c>
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr"/>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>execution</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>1869-01-01</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>1869-12-31</t>
-        </is>
-      </c>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>L24;L27</t>
-        </is>
-      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr"/>
@@ -16783,18 +17213,18 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>OBE23</t>
+          <t>OBE22</t>
         </is>
       </c>
       <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr">
         <is>
-          <t>commissioner</t>
+          <t>depicted by</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>P19</t>
+          <t>OD40</t>
         </is>
       </c>
       <c r="E58" t="inlineStr"/>
@@ -16815,25 +17245,45 @@
           <t>OBE23</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr"/>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Emperor Francis Joseph I commissions Carl Hasenauer to complete the Michaeler façade in connection with the extension of the Hofburg in the form of the "Imperial Forum"</t>
+        </is>
+      </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>depicted by</t>
+          <t>Thing Role</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>OD50</t>
+          <t>OB24;OB27</t>
         </is>
       </c>
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr"/>
-      <c r="G59" t="inlineStr"/>
-      <c r="H59" t="inlineStr"/>
-      <c r="I59" t="inlineStr"/>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>execution</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>1869-01-01</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>1869-12-31</t>
+        </is>
+      </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>L24;L27</t>
+        </is>
+      </c>
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr"/>
@@ -16841,48 +17291,28 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>OBE24</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>Obersthofmeister Konstantin Prince Hohenlohe-Schillingsfürst and Minister of the Interior Joseph Baron Lasser von Zollheim recommend the purchase of the houses on Michaelerplatz</t>
-        </is>
-      </c>
+          <t>OBE23</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Thing Role</t>
+          <t>commissioner</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>OB24</t>
+          <t>P19</t>
         </is>
       </c>
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr"/>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>execution</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>1876-01-01</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>1876-12-31</t>
-        </is>
-      </c>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>L24</t>
-        </is>
-      </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr"/>
@@ -16890,48 +17320,28 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>OBE25</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>Purchase of the house of Gabriel Baron Gudenus at Michaelerplatz</t>
-        </is>
-      </c>
+          <t>OBE23</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Thing Role</t>
+          <t>depicted by</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>OB24</t>
+          <t>OD50</t>
         </is>
       </c>
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr"/>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>execution</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>1877-01-01</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>1877-12-31</t>
-        </is>
-      </c>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>L24</t>
-        </is>
-      </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr"/>
@@ -16939,28 +17349,48 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>OBE25</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr"/>
+          <t>OBE24</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Obersthofmeister Konstantin Prince Hohenlohe-Schillingsfürst and Minister of the Interior Joseph Baron Lasser von Zollheim recommend the purchase of the houses on Michaelerplatz</t>
+        </is>
+      </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>buyer</t>
+          <t>Thing Role</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>P20</t>
+          <t>OB24</t>
         </is>
       </c>
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr"/>
-      <c r="G62" t="inlineStr"/>
-      <c r="H62" t="inlineStr"/>
-      <c r="I62" t="inlineStr"/>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>execution</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>1876-01-01</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>1876-12-31</t>
+        </is>
+      </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>L24</t>
+        </is>
+      </c>
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr"/>
@@ -16968,48 +17398,28 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>OBE25a</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>Most submissive submission by Hohenlohe and Lasser recommending the purchase of the Gudenus House on Michaelerplatz</t>
-        </is>
-      </c>
+          <t>OBE24</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Thing Role</t>
+          <t>leading court staff (Obersthofmeister)</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>OB24</t>
+          <t>P23</t>
         </is>
       </c>
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr"/>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>execution</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>1877-03-08</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>1877-03-08</t>
-        </is>
-      </c>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>L24</t>
-        </is>
-      </c>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr"/>
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr"/>
@@ -17017,12 +17427,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>OBE25b</t>
+          <t>OBE25</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Highest possible acknowledgement of the purchase of the Gudenus House by Francis Joseph I</t>
+          <t>Purchase of the house of Gabriel Baron Gudenus at Michaelerplatz</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -17044,12 +17454,12 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>1877-03-13</t>
+          <t>1877-01-01</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>1877-03-13</t>
+          <t>1877-12-31</t>
         </is>
       </c>
       <c r="J64" t="inlineStr"/>
@@ -17066,48 +17476,28 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>OBE26</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>Completion of the relocation of the old Burgtheater to the new house on the Ring</t>
-        </is>
-      </c>
+          <t>OBE25</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Thing Role</t>
+          <t>buyer</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>OB26</t>
+          <t>P20</t>
         </is>
       </c>
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr"/>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>execution</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>1888-01-01</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>1888-12-31</t>
-        </is>
-      </c>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>L26</t>
-        </is>
-      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr"/>
@@ -17115,12 +17505,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>OBE27</t>
+          <t>OBE25a</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t xml:space="preserve">Demolition of the old Burgtheater </t>
+          <t>Most submissive submission by Hohenlohe and Lasser recommending the purchase of the Gudenus House on Michaelerplatz</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -17130,7 +17520,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>OB26</t>
+          <t>OB24</t>
         </is>
       </c>
       <c r="E66" t="inlineStr"/>
@@ -17142,19 +17532,19 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>1888-01-01</t>
+          <t>1877-03-08</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>1888-12-31</t>
+          <t>1877-03-08</t>
         </is>
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr">
         <is>
-          <t>L26</t>
+          <t>L24</t>
         </is>
       </c>
       <c r="M66" t="inlineStr"/>
@@ -17164,18 +17554,18 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>OBE27</t>
+          <t>OBE25a</t>
         </is>
       </c>
       <c r="B67" t="inlineStr"/>
       <c r="C67" t="inlineStr">
         <is>
-          <t>depicted by</t>
+          <t>proposer</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>OD51</t>
+          <t>P23</t>
         </is>
       </c>
       <c r="E67" t="inlineStr"/>
@@ -17193,48 +17583,28 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>OBE28</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>Commission to Carl Hasenauer to produce designs for the completion of the Michaeler façade</t>
-        </is>
-      </c>
+          <t>OBE25a</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Thing Role</t>
+          <t>proposer</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>OB24</t>
+          <t>P24</t>
         </is>
       </c>
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr"/>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>execution</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>1888-01-01</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>1888-12-31</t>
-        </is>
-      </c>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>L24</t>
-        </is>
-      </c>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr"/>
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr"/>
@@ -17242,12 +17612,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>OBE29</t>
+          <t>OBE25b</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>drafts by Ferdinand Kirschner for the completion of the Michaeler façade</t>
+          <t>Highest possible acknowledgement of the purchase of the Gudenus House by Francis Joseph I</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -17264,17 +17634,17 @@
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr">
         <is>
-          <t>planning</t>
+          <t>execution</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>1888-01-01</t>
+          <t>1877-03-13</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>1888-12-31</t>
+          <t>1877-03-13</t>
         </is>
       </c>
       <c r="J69" t="inlineStr"/>
@@ -17291,48 +17661,28 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>OBE30</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>Commission discussion of the plans submitted by Hasenauer and Kirschner</t>
-        </is>
-      </c>
+          <t>OBE25b</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr"/>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Thing Role</t>
+          <t>approver</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>OB24</t>
+          <t>P19</t>
         </is>
       </c>
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr"/>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>execution</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>1889-03-01</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>1889-03-31</t>
-        </is>
-      </c>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>L24</t>
-        </is>
-      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr"/>
       <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr"/>
@@ -17340,48 +17690,28 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>OBE31</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>Francis Joseph I commissions Kirschner to draw up the execution plans based on Hasenauer's façade design and incorporating his own spatial concept, and to carry out the execution</t>
-        </is>
-      </c>
+          <t>OBE25b</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Thing Role</t>
+          <t>proposer</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>OB24</t>
+          <t>P20</t>
         </is>
       </c>
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr"/>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>execution</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>1889-04-01</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>1889-04-30</t>
-        </is>
-      </c>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>L24</t>
-        </is>
-      </c>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr"/>
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr"/>
@@ -17389,12 +17719,12 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>OBE32</t>
+          <t>OBE26</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Kirschner presents his execution plans to the Court Building Committee</t>
+          <t>Completion of the relocation of the old Burgtheater to the new house on the Ring</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -17404,7 +17734,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>OB24</t>
+          <t>OB26</t>
         </is>
       </c>
       <c r="E72" t="inlineStr"/>
@@ -17416,19 +17746,19 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>1889-11-01</t>
+          <t>1888-01-01</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>1889-11-30</t>
+          <t>1888-12-31</t>
         </is>
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr">
         <is>
-          <t>L24</t>
+          <t>L26</t>
         </is>
       </c>
       <c r="M72" t="inlineStr"/>
@@ -17438,12 +17768,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>OBE33</t>
+          <t>OBE27</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Wiener Baugesellschaft is awarded the contract for the master builder works as the best bidder</t>
+          <t xml:space="preserve">Demolition of the old Burgtheater </t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -17453,7 +17783,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>OB24</t>
+          <t>OB26</t>
         </is>
       </c>
       <c r="E73" t="inlineStr"/>
@@ -17465,19 +17795,19 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>1890-01-01</t>
+          <t>1888-01-01</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>1890-12-31</t>
+          <t>1888-12-31</t>
         </is>
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr">
         <is>
-          <t>L24</t>
+          <t>L26</t>
         </is>
       </c>
       <c r="M73" t="inlineStr"/>
@@ -17487,48 +17817,28 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>OBE34</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>the tendering of the roofing work takes place</t>
-        </is>
-      </c>
+          <t>OBE27</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr"/>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Thing Role</t>
+          <t>depicted by</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>OB24</t>
+          <t>OD51</t>
         </is>
       </c>
       <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr"/>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>execution</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>1891-01-01</t>
-        </is>
-      </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>1891-12-31</t>
-        </is>
-      </c>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>L24</t>
-        </is>
-      </c>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr"/>
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr"/>
@@ -17536,12 +17846,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>OBE35</t>
+          <t>OBE28</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Resolution of the Court Building Committee on the electrification of the Michaelertrakt</t>
+          <t>Commission to Carl Hasenauer to produce designs for the completion of the Michaeler façade</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -17563,12 +17873,12 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>1892-01-01</t>
+          <t>1888-01-01</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>1892-12-31</t>
+          <t>1888-12-31</t>
         </is>
       </c>
       <c r="J75" t="inlineStr"/>
@@ -17585,51 +17895,655 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>OBE36</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>completion of the Michaelertrakt</t>
-        </is>
-      </c>
+          <t>OBE28</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr"/>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Thing Role</t>
+          <t>architect</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>OB24</t>
+          <t>P12</t>
         </is>
       </c>
       <c r="E76" t="inlineStr"/>
       <c r="F76" t="inlineStr"/>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>execution</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>1895-01-01</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>1895-12-31</t>
-        </is>
-      </c>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>L24</t>
-        </is>
-      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr"/>
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>OBE29</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>drafts by Ferdinand Kirschner for the completion of the Michaeler façade</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Thing Role</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>OB24</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>planning</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>1888-01-01</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>1888-12-31</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>L24</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="inlineStr"/>
+      <c r="O77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>OBE29</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr"/>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>architect</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>P13</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="inlineStr"/>
+      <c r="O78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>OBE30</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Commission discussion of the plans submitted by Hasenauer and Kirschner</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Thing Role</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>OB24</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>execution</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>1889-03-01</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>1889-03-31</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>L24</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="inlineStr"/>
+      <c r="O79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>OBE30</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr"/>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>commission member</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>P12</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="inlineStr"/>
+      <c r="O80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>OBE30</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr"/>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>commission member</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>P13</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="inlineStr"/>
+      <c r="O81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>OBE31</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Francis Joseph I commissions Kirschner to draw up the execution plans based on Hasenauer's façade design and incorporating his own spatial concept, and to carry out the execution</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Thing Role</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>OB24</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>execution</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>1889-04-01</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>1889-04-30</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>L24</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="inlineStr"/>
+      <c r="O82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>OBE31</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr"/>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>approver</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>P19</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="inlineStr"/>
+      <c r="O83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>OBE32</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Kirschner presents his execution plans to the Court Building Committee</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Thing Role</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>OB24</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>execution</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>1889-11-01</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>1889-11-30</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>L24</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="inlineStr"/>
+      <c r="O84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>OBE32</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr"/>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>architect</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>P13</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="inlineStr"/>
+      <c r="O85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>OBE32</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr"/>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>commission</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>G03</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr"/>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="inlineStr"/>
+      <c r="O86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>OBE33</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Wiener Baugesellschaft is awarded the contract for the master builder works as the best bidder</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Thing Role</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>OB24</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>execution</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>1890-01-01</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>1890-12-31</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>L24</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="inlineStr"/>
+      <c r="O87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>OBE33</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr"/>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>construction company</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>G04</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="inlineStr"/>
+      <c r="O88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>OBE34</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>the tendering of the roofing work takes place</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Thing Role</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>OB24</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>execution</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>1891-01-01</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>1891-12-31</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>L24</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="inlineStr"/>
+      <c r="O89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>OBE35</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Resolution of the Court Building Committee on the electrification of the Michaelertrakt</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Thing Role</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>OB24</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>execution</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>1892-01-01</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>1892-12-31</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>L24</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="inlineStr"/>
+      <c r="O90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>OBE35</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr"/>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>commission</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>G03</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr"/>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="inlineStr"/>
+      <c r="O91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>OBE36</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>completion of the Michaelertrakt</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Thing Role</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>OB24</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>execution</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>1895-01-01</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>1895-12-31</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>L24</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="inlineStr"/>
+      <c r="O92" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
